--- a/biology/Biologie cellulaire et moléculaire/RANKL/RANKL.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/RANKL/RANKL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 RANKL (receptor activator of nuclear factor kappa-B ligand) est un ligand qui intervient dans le métabolisme osseux libéré par les ostéoblastes aboutissant à la maturation de l' ostéoclastes.
@@ -513,11 +525,13 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a plusieurs ligands, dont le RANK, le LGR4[2] et l'ostéoprotégérine. Il inhibe l'expression du RNF146[3], une ubiquitine ligase E3.
-Il intervient dans le métabolisme osseux, permettant la différenciation des ostéoclastes[4].
-Il favorise le développement du tissu lymphoïde[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a plusieurs ligands, dont le RANK, le LGR4 et l'ostéoprotégérine. Il inhibe l'expression du RNF146, une ubiquitine ligase E3.
+Il intervient dans le métabolisme osseux, permettant la différenciation des ostéoclastes.
+Il favorise le développement du tissu lymphoïde.
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il pourrait favoriser la formation des cancers du sein sous progestatifs de synthèse[6].
-Le denosumab est un anticorps monoclonal dirigé contre le RANKL. Il pourrait être efficace dans le traitement de l'ostéosarcome[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il pourrait favoriser la formation des cancers du sein sous progestatifs de synthèse.
+Le denosumab est un anticorps monoclonal dirigé contre le RANKL. Il pourrait être efficace dans le traitement de l'ostéosarcome.
 </t>
         </is>
       </c>
